--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO657483.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-RO657483.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E25E59-E7AA-4AA6-B08C-0B0078609EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F9B44-6930-4929-A616-6C72F346B253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{BDACC095-0B28-4191-892A-4E8DD11ADD7E}"/>
   </bookViews>
